--- a/results/old/preliminary_results.xlsx
+++ b/results/old/preliminary_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klint\Documents\Bachelor\bakalaurs\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klint\Documents\Bachelor\bakalaurs\results\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D655A5-64D3-4944-8D6B-968BD55CD105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D80382F-79B2-4581-A8A8-7B2B3D46BF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D73E99EE-97DC-43B2-B45E-EC5197FB7FFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D73E99EE-97DC-43B2-B45E-EC5197FB7FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingredients NEW" sheetId="4" r:id="rId1"/>
@@ -4385,8 +4385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB17277-F2A0-4F39-A06B-C62560EDE005}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6772,7 +6772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36E5613-2C6B-4BDF-9338-0543B0749DF9}">
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
